--- a/xlsx/低可偵測性技術_intext.xlsx
+++ b/xlsx/低可偵測性技術_intext.xlsx
@@ -29,7 +29,7 @@
     <t>科技</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_低可偵測性技術</t>
+    <t>体育运动_体育运动_技术_低可偵測性技術</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
